--- a/AzureRepoStatistics/telemetry.xlsx
+++ b/AzureRepoStatistics/telemetry.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atif\source\repos\telemetry\AzureRepoStatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B7C7AC-F244-40EC-897F-9DABA09ECF60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635594EF-E5BD-44D6-82E7-E8B1CFDA4794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F7A4B782-D10A-4CD3-88E7-C23099E461E9}"/>
+    <workbookView xWindow="348" yWindow="3192" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GitHub New Contribution" sheetId="1" r:id="rId1"/>
     <sheet name="GitHub Update Contribution" sheetId="2" r:id="rId2"/>
+    <sheet name="Contributors" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>Github Handle</t>
   </si>
@@ -74,6 +69,135 @@
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t>hesaad</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>ashwin-patil</t>
+  </si>
+  <si>
+    <t>thmcelro</t>
+  </si>
+  <si>
+    <t>chinguyen1</t>
+  </si>
+  <si>
+    <t>YaronFruchtmann</t>
+  </si>
+  <si>
+    <t>JimmyJamCABD</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>chicduong</t>
+  </si>
+  <si>
+    <t>haim6678</t>
+  </si>
+  <si>
+    <t>liadga</t>
+  </si>
+  <si>
+    <t>malowe101</t>
+  </si>
+  <si>
+    <t>gumalul</t>
+  </si>
+  <si>
+    <t>TreMansdoerfer</t>
+  </si>
+  <si>
+    <t>mcpjanmarek</t>
+  </si>
+  <si>
+    <t>Yaniv-Shasha</t>
+  </si>
+  <si>
+    <t>shainw</t>
+  </si>
+  <si>
+    <t>dicolanl</t>
+  </si>
+  <si>
+    <t>itay6588</t>
+  </si>
+  <si>
+    <t>tkubica12</t>
+  </si>
+  <si>
+    <t>netevert</t>
+  </si>
+  <si>
+    <t>javaservlets</t>
+  </si>
+  <si>
+    <t>nrathaus</t>
+  </si>
+  <si>
+    <t>jross1012</t>
+  </si>
+  <si>
+    <t>Iftekharh</t>
+  </si>
+  <si>
+    <t>Molx32</t>
+  </si>
+  <si>
+    <t>happy-jo</t>
+  </si>
+  <si>
+    <t>CrisRomeo</t>
+  </si>
+  <si>
+    <t>erant10</t>
+  </si>
+  <si>
+    <t>briandelmsft</t>
+  </si>
+  <si>
+    <t>russmcsec</t>
+  </si>
+  <si>
+    <t>morshabi</t>
+  </si>
+  <si>
+    <t>ThijsLecomte</t>
+  </si>
+  <si>
+    <t>itsreallynick</t>
+  </si>
+  <si>
+    <t>igalshapira</t>
+  </si>
+  <si>
+    <t>kfbehar</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>chboeh</t>
+  </si>
+  <si>
+    <t>aadelnabil</t>
+  </si>
+  <si>
+    <t>javiersoriano</t>
+  </si>
+  <si>
+    <t>petebryan</t>
+  </si>
+  <si>
+    <t>dependabot[bot]</t>
+  </si>
+  <si>
+    <t>TomJanetscheck</t>
   </si>
 </sst>
 </file>
@@ -126,10 +250,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,29 +569,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2235596F-6901-4515-8DA9-146051CD1085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="28.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,17 +639,1205 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N1" r:id="rId1" display="https://github.com/Azure/Azure-Sentinel-Notebooks/tree/efbace2d70361da471e233d0f2b923fc670090ef" xr:uid="{6CFEA7BE-650B-463B-B76B-FDA0F16AB0BB}"/>
-    <hyperlink ref="J1" r:id="rId2" tooltip="Hunting Queries" display="https://github.com/Azure/Azure-Sentinel/tree/master/Hunting Queries" xr:uid="{DFCAA3CC-AAC0-40CF-BEE0-6B5349D78E18}"/>
-    <hyperlink ref="K1" r:id="rId3" tooltip="Sample Data" display="https://github.com/Azure/Azure-Sentinel/tree/master/Sample Data" xr:uid="{0479D17F-2C5A-4CEB-960E-97468E8FA467}"/>
-    <hyperlink ref="L1" r:id="rId4" tooltip="Tools" display="https://github.com/Azure/Azure-Sentinel/tree/master/Tools" xr:uid="{2A232DCD-3DCA-4E36-9E43-FC96BCD39EA6}"/>
-    <hyperlink ref="I1" r:id="rId5" tooltip="Exploration Queries" display="https://github.com/Azure/Azure-Sentinel/tree/master/Exploration Queries" xr:uid="{0954E7CA-382F-4E9F-B64C-E9F62EFEDB21}"/>
-    <hyperlink ref="M1" r:id="rId6" tooltip="Detections" display="https://github.com/Azure/Azure-Sentinel/tree/master/Detections" xr:uid="{CF02A984-98C4-4D60-82B0-8768F8A88CEE}"/>
-    <hyperlink ref="F1" r:id="rId7" tooltip="DataConnectors" display="https://github.com/Azure/Azure-Sentinel/tree/master/DataConnectors" xr:uid="{E3E2EF4F-64B5-46ED-AB2C-C111E8D2684E}"/>
-    <hyperlink ref="H1" r:id="rId8" tooltip="Playbooks" display="https://github.com/Azure/Azure-Sentinel/tree/master/Playbooks" xr:uid="{CA21084E-42D3-48D4-A9F2-36F509CA8BFE}"/>
-    <hyperlink ref="G1" r:id="rId9" tooltip="Workbooks" display="https://github.com/Azure/Azure-Sentinel/tree/master/Workbooks" xr:uid="{9E638FE6-EB42-4C7B-8E45-E071EA71FDAC}"/>
+    <hyperlink ref="G1" r:id="rId1" tooltip="Workbooks" display="https://github.com/Azure/Azure-Sentinel/tree/master/Workbooks" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H1" r:id="rId2" tooltip="Playbooks" display="https://github.com/Azure/Azure-Sentinel/tree/master/Playbooks" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F1" r:id="rId3" tooltip="DataConnectors" display="https://github.com/Azure/Azure-Sentinel/tree/master/DataConnectors" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M1" r:id="rId4" tooltip="Detections" display="https://github.com/Azure/Azure-Sentinel/tree/master/Detections" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I1" r:id="rId5" tooltip="Exploration Queries" display="https://github.com/Azure/Azure-Sentinel/tree/master/Exploration Queries" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L1" r:id="rId6" tooltip="Tools" display="https://github.com/Azure/Azure-Sentinel/tree/master/Tools" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K1" r:id="rId7" tooltip="Sample Data" display="https://github.com/Azure/Azure-Sentinel/tree/master/Sample Data" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J1" r:id="rId8" tooltip="Hunting Queries" display="https://github.com/Azure/Azure-Sentinel/tree/master/Hunting Queries" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N1" r:id="rId9" display="https://github.com/Azure/Azure-Sentinel-Notebooks/tree/efbace2d70361da471e233d0f2b923fc670090ef" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
@@ -532,29 +1845,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7C5CA-AE71-48C9-9D21-E559C14AD61F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="1" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,18 +1914,1350 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>86</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>55</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44053</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N1" r:id="rId1" display="https://github.com/Azure/Azure-Sentinel-Notebooks/tree/efbace2d70361da471e233d0f2b923fc670090ef" xr:uid="{5491CD6F-226D-42E5-877B-5B40C37DD27F}"/>
-    <hyperlink ref="J1" r:id="rId2" tooltip="Hunting Queries" display="https://github.com/Azure/Azure-Sentinel/tree/master/Hunting Queries" xr:uid="{8F58B70B-0CF2-44A8-B8B1-872FFC3062B0}"/>
-    <hyperlink ref="K1" r:id="rId3" tooltip="Sample Data" display="https://github.com/Azure/Azure-Sentinel/tree/master/Sample Data" xr:uid="{9475D41D-1306-4DFC-B601-4095ADF163A5}"/>
-    <hyperlink ref="L1" r:id="rId4" tooltip="Tools" display="https://github.com/Azure/Azure-Sentinel/tree/master/Tools" xr:uid="{18054893-B36F-4E85-853C-C8363D158E58}"/>
-    <hyperlink ref="I1" r:id="rId5" tooltip="Exploration Queries" display="https://github.com/Azure/Azure-Sentinel/tree/master/Exploration Queries" xr:uid="{F1EA4B91-3275-442E-9BBC-120B3BC12D6D}"/>
-    <hyperlink ref="M1" r:id="rId6" tooltip="Detections" display="https://github.com/Azure/Azure-Sentinel/tree/master/Detections" xr:uid="{B84E1507-7427-4F73-902C-65D4ACBC106D}"/>
-    <hyperlink ref="F1" r:id="rId7" tooltip="DataConnectors" display="https://github.com/Azure/Azure-Sentinel/tree/master/DataConnectors" xr:uid="{FA410235-FC5F-4D21-AA94-1D6D25C651B5}"/>
-    <hyperlink ref="H1" r:id="rId8" tooltip="Playbooks" display="https://github.com/Azure/Azure-Sentinel/tree/master/Playbooks" xr:uid="{6DBEE6D3-430B-453F-9E85-F67AA87201B1}"/>
-    <hyperlink ref="G1" r:id="rId9" tooltip="Workbooks" display="https://github.com/Azure/Azure-Sentinel/tree/master/Workbooks" xr:uid="{2097B015-239C-4892-B65E-081FD4EF8837}"/>
+    <hyperlink ref="N1" r:id="rId1" display="https://github.com/Azure/Azure-Sentinel-Notebooks/tree/efbace2d70361da471e233d0f2b923fc670090ef" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J1" r:id="rId2" tooltip="Hunting Queries" display="https://github.com/Azure/Azure-Sentinel/tree/master/Hunting Queries" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="K1" r:id="rId3" tooltip="Sample Data" display="https://github.com/Azure/Azure-Sentinel/tree/master/Sample Data" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="L1" r:id="rId4" tooltip="Tools" display="https://github.com/Azure/Azure-Sentinel/tree/master/Tools" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="I1" r:id="rId5" tooltip="Exploration Queries" display="https://github.com/Azure/Azure-Sentinel/tree/master/Exploration Queries" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="M1" r:id="rId6" tooltip="Detections" display="https://github.com/Azure/Azure-Sentinel/tree/master/Detections" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F1" r:id="rId7" tooltip="DataConnectors" display="https://github.com/Azure/Azure-Sentinel/tree/master/DataConnectors" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H1" r:id="rId8" tooltip="Playbooks" display="https://github.com/Azure/Azure-Sentinel/tree/master/Playbooks" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G1" r:id="rId9" tooltip="Workbooks" display="https://github.com/Azure/Azure-Sentinel/tree/master/Workbooks" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>